--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardchoi/Desktop/diabetes classification project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C081FF-69AF-9D43-98CB-EC7642F07A1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03166B96-5696-7945-B63E-78368575DE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38980" yWindow="6260" windowWidth="28040" windowHeight="17440" xr2:uid="{8C4FEDAC-B147-F04E-ADFE-56867D8AD304}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{8C4FEDAC-B147-F04E-ADFE-56867D8AD304}"/>
   </bookViews>
   <sheets>
     <sheet name="missingness" sheetId="1" r:id="rId1"/>
     <sheet name="quantify" sheetId="2" r:id="rId2"/>
+    <sheet name="base_models" sheetId="5" r:id="rId3"/>
+    <sheet name="summary" sheetId="4" r:id="rId4"/>
+    <sheet name="hyperparameters" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">summary!$A$1:$J$17</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>Missing Feature</t>
   </si>
@@ -128,13 +134,148 @@
   </si>
   <si>
     <t>Over 8</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Stacked Classifier</t>
+  </si>
+  <si>
+    <t>Number of Diagnoses</t>
+  </si>
+  <si>
+    <t>Time in Hospital</t>
+  </si>
+  <si>
+    <t>Number of Medications</t>
+  </si>
+  <si>
+    <t>Number of Lab Procedures</t>
+  </si>
+  <si>
+    <t>XGBoost Classifier</t>
+  </si>
+  <si>
+    <t>Number of Emergencies</t>
+  </si>
+  <si>
+    <t>Number Inpatient</t>
+  </si>
+  <si>
+    <t>Tuned Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>Bagged Logistic Regression Classifier</t>
+  </si>
+  <si>
+    <t>Diabetes Medication</t>
+  </si>
+  <si>
+    <t>Tuned Logistic Regression Classifier</t>
+  </si>
+  <si>
+    <t>Number of Procedures</t>
+  </si>
+  <si>
+    <t>Tuned Decision Tree</t>
+  </si>
+  <si>
+    <t>Optimized Models</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>Logistic Regression Classifier</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier</t>
+  </si>
+  <si>
+    <t>Base Models</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Feature Importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC </t>
+  </si>
+  <si>
+    <t>Base Model</t>
+  </si>
+  <si>
+    <t>Max Depth</t>
+  </si>
+  <si>
+    <t>Max Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Samples per Leaf </t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>Penalty Method (Ridge, Lasso)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularization Strength (C) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Depth </t>
+  </si>
+  <si>
+    <t>Number of Estimators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Rate (eta) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Child Weight </t>
+  </si>
+  <si>
+    <t>Regularization Strength (gamma)</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning</t>
+  </si>
+  <si>
+    <t>Old AUC</t>
+  </si>
+  <si>
+    <t>New AUC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,8 +314,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,9 +472,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,12 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +522,99 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,6 +631,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10746</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D11F257-6E86-0049-BFE6-B36A48FE28C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1644487" y="3484359"/>
+          <a:ext cx="5359400" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45ECA121-6218-B944-BFBB-612CEDD332D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647152" y="1947333"/>
+          <a:ext cx="7797800" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BEC295-E876-9641-AE30-27BC2C700462}">
   <dimension ref="C3:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,44 +1116,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF3F983-B9F9-BE42-A6BC-5EBC223E21D3}">
   <dimension ref="C1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H14"/>
+    <sheetView showGridLines="0" zoomScale="176" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -830,15 +1170,15 @@
       <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -847,18 +1187,18 @@
       <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>100</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -867,18 +1207,18 @@
       <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>200</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -887,18 +1227,18 @@
       <c r="F7" s="10">
         <v>2</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -907,15 +1247,15 @@
       <c r="F8" s="10">
         <v>3</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="24"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="5" t="s">
         <v>21</v>
@@ -923,68 +1263,68 @@
       <c r="F9" s="10">
         <v>4</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>5</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="34" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>6</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="34" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>7</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="34" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>8</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="35" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="29">
         <v>9</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -994,4 +1334,542 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDFF0FF-EA8D-6140-9415-785FE58F56B2}">
+  <dimension ref="C3:E15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="156" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0.52</v>
+      </c>
+      <c r="E12" s="53">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="59">
+        <v>0.63</v>
+      </c>
+      <c r="E13" s="53">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="59">
+        <v>0.59</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="61">
+        <v>0.61</v>
+      </c>
+      <c r="E15" s="54">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42258E1E-2723-B245-8745-02EF3292ECD2}">
+  <dimension ref="B3:I16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="114" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="2:9" ht="19" x14ac:dyDescent="0.35">
+      <c r="C4" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="37" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0.52</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="37" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0.63</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="37" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="58"/>
+      <c r="C7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.59</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="37" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="58"/>
+      <c r="C8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0.61</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="37" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="2:9" s="37" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="41"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="58"/>
+      <c r="C12" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0.63</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="58"/>
+      <c r="C13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0.63</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="58"/>
+      <c r="C14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0.63</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="58"/>
+      <c r="C15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0.62</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="58"/>
+      <c r="C16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0.63</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B11:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="44" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B553D6B1-32AD-AE41-8BE1-19CF3AC5B0F5}">
+  <dimension ref="C2:F8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" s="37" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>